--- a/artfynd/A 4998-2020.xlsx
+++ b/artfynd/A 4998-2020.xlsx
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575733.789295566</v>
+        <v>575734</v>
       </c>
       <c r="R2" t="n">
-        <v>6671438.551727255</v>
+        <v>6671439</v>
       </c>
       <c r="S2" t="n">
         <v>30</v>
@@ -763,19 +763,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
